--- a/doc/MA_Pinout.xlsx
+++ b/doc/MA_Pinout.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Signal Name</t>
   </si>
@@ -127,16 +130,10 @@
     <t>Analog</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>Occlusion sensor signal.  Checks for presence of arrow in system.</t>
   </si>
   <si>
     <t>ROptic</t>
-  </si>
-  <si>
-    <t>A9</t>
   </si>
   <si>
     <t>DrawRelay</t>
@@ -196,50 +193,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -249,9 +227,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
@@ -348,513 +324,809 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="2"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="3" applyFont="1" fontId="3">
-      <alignment vertical="bottom" horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="4" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="5" applyFont="1" fontId="4">
-      <alignment vertical="bottom" horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="6" fontId="0">
-      <alignment vertical="bottom" horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.57" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="17.71"/>
-    <col min="2" customWidth="1" max="2" width="11.57"/>
-    <col min="3" customWidth="1" max="3" width="11.29"/>
-    <col min="4" customWidth="1" max="4" width="9.86"/>
-    <col min="5" customWidth="1" max="5" width="12.57"/>
-    <col min="6" customWidth="1" max="6" width="14.86"/>
-    <col min="7" customWidth="1" max="7" width="58.57"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="6" r="A1">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="6" r="B1">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="6" r="C1">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="6" r="D1">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="6" r="E1">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="6" r="F1">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="6" r="G1">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" s="3" r="A2">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="4" r="B2">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C2">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="D2">
-        <v>18</v>
-      </c>
-      <c t="s" s="4" r="E2">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F2">
+      <c r="D2" s="4">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="3" r="G2">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" s="3" r="A3">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="4" r="B3">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C3">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c s="4" r="D3">
+      <c r="D3" s="4">
         <v>19</v>
       </c>
-      <c t="s" s="4" r="E3">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F3">
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="3" r="G3">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" s="3" r="A4">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="4" r="B4">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C4">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="D4">
+      <c r="D4" s="4">
         <v>40</v>
       </c>
-      <c t="s" s="4" r="E4">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F4">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G4">
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" s="3" r="A5">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="4" r="B5">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C5">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="D5">
+      <c r="D5" s="4">
         <v>42</v>
       </c>
-      <c t="s" s="4" r="E5">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F5">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G5">
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" s="3" r="A6">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="4" r="B6">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C6">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="D6">
+      <c r="D6" s="4">
         <v>44</v>
       </c>
-      <c t="s" s="4" r="E6">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F6">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G6">
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
-      <c t="s" s="3" r="A7">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="4" r="B7">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C7">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="D7">
+      <c r="D7" s="4">
         <v>50</v>
       </c>
-      <c t="s" s="4" r="E7">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F7">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G7">
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8">
-      <c t="s" s="3" r="A8">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="4" r="B8">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C8">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="D8">
+      <c r="D8" s="4">
         <v>48</v>
       </c>
-      <c t="s" s="4" r="E8">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F8">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G8">
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9">
-      <c t="s" s="3" r="A9">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="4" r="B9">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C9">
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c s="4" r="D9">
+      <c r="D9" s="4">
         <v>46</v>
       </c>
-      <c t="s" s="4" r="E9">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F9">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G9">
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10">
-      <c t="s" s="3" r="A10">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="4" r="B10">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C10">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c s="4" r="D10">
+      <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c t="s" s="4" r="E10">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F10">
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="3" r="G10">
+      <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11">
-      <c t="s" s="3" r="A11">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="4" r="B11">
-        <v>8</v>
-      </c>
-      <c t="s" s="4" r="C11">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c s="4" r="D11">
+      <c r="D11" s="4">
         <v>21</v>
       </c>
-      <c t="s" s="4" r="E11">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F11">
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="3" r="G11">
+      <c r="G11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12">
-      <c t="s" s="3" r="A12">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="4" r="B12">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="4" r="C12">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="4" r="D12">
+      <c r="D12" s="4">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="4" r="E12">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F12">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G12">
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13">
-      <c t="s" s="3" r="A13">
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="4" r="B13">
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
         <v>37</v>
       </c>
-      <c t="s" s="4" r="C13">
-        <v>14</v>
-      </c>
-      <c t="s" s="4" r="D13">
-        <v>41</v>
-      </c>
-      <c t="s" s="4" r="E13">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F13">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G13">
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="14">
-      <c t="s" s="3" r="A14">
-        <v>42</v>
-      </c>
-      <c t="s" s="4" r="B14">
-        <v>8</v>
-      </c>
-      <c s="4" r="C14">
-        <v>34</v>
-      </c>
-      <c t="s" s="4" r="D14">
-        <v>43</v>
-      </c>
-      <c s="4" r="E14">
-        <v>0</v>
-      </c>
-      <c t="s" s="4" r="F14">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G14">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="s" s="3" r="A15">
-        <v>45</v>
-      </c>
-      <c t="s" s="4" r="B15">
-        <v>8</v>
-      </c>
-      <c s="4" r="C15">
-        <v>36</v>
-      </c>
-      <c t="s" s="4" r="D15">
-        <v>43</v>
-      </c>
-      <c s="4" r="E15">
-        <v>0</v>
-      </c>
-      <c t="s" s="4" r="F15">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G15">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="s" s="3" r="A16">
-        <v>47</v>
-      </c>
-      <c t="s" s="4" r="B16">
-        <v>8</v>
-      </c>
-      <c s="4" r="C16">
-        <v>38</v>
-      </c>
-      <c t="s" s="4" r="D16">
-        <v>43</v>
-      </c>
-      <c s="4" r="E16">
-        <v>0</v>
-      </c>
-      <c t="s" s="4" r="F16">
-        <v>18</v>
-      </c>
-      <c t="s" s="3" r="G16">
+      <c r="D18" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17">
-      <c t="s" s="2" r="A17">
-        <v>49</v>
-      </c>
-      <c t="s" s="4" r="B17">
-        <v>8</v>
-      </c>
-      <c s="7" r="C17">
-        <v>37</v>
-      </c>
-      <c t="s" s="7" r="D17">
-        <v>50</v>
-      </c>
-      <c t="s" s="7" r="E17">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F17">
-        <v>18</v>
-      </c>
-      <c t="s" s="2" r="G17">
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18">
-      <c t="s" s="2" r="A18">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="4" r="B18">
-        <v>8</v>
-      </c>
-      <c s="7" r="C18">
-        <v>39</v>
-      </c>
-      <c t="s" s="7" r="D18">
-        <v>50</v>
-      </c>
-      <c t="s" s="7" r="E18">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F18">
-        <v>18</v>
-      </c>
-      <c t="s" s="2" r="G18">
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19">
-      <c t="s" s="2" r="A19">
+      <c r="D19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="4" r="B19">
-        <v>8</v>
-      </c>
-      <c t="s" s="7" r="C19">
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="7" r="D19">
-        <v>50</v>
-      </c>
-      <c t="s" s="7" r="E19">
-        <v>10</v>
-      </c>
-      <c t="s" s="4" r="F19">
-        <v>18</v>
-      </c>
-      <c t="s" s="2" r="G19">
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20">
-      <c s="5" r="A20"/>
-      <c s="5" r="B20"/>
-      <c s="5" r="C20"/>
-      <c s="5" r="D20"/>
-      <c s="5" r="E20"/>
-      <c s="5" r="F20"/>
-      <c s="5" r="G20"/>
-    </row>
-    <row r="21">
-      <c t="s" s="1" r="A21">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22">
-      <c t="s" s="1" r="A22">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23">
-      <c t="s" s="1" r="A23">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/MA_Pinout.xlsx
+++ b/doc/MA_Pinout.xlsx
@@ -136,21 +136,9 @@
     <t>ROptic</t>
   </si>
   <si>
-    <t>DrawRelay</t>
-  </si>
-  <si>
     <t>RGND</t>
   </si>
   <si>
-    <t>Interface relay signal governing draw state of winch.</t>
-  </si>
-  <si>
-    <t>RetractRelay</t>
-  </si>
-  <si>
-    <t>Interface relay signal governing retract state of winch.</t>
-  </si>
-  <si>
     <t>FireSolenoid</t>
   </si>
   <si>
@@ -188,13 +176,25 @@
   </si>
   <si>
     <t>LP:  Local power bus</t>
+  </si>
+  <si>
+    <t>motorEnable</t>
+  </si>
+  <si>
+    <t>motorDirection</t>
+  </si>
+  <si>
+    <t>Interface relay signal to enable or disable the motor.</t>
+  </si>
+  <si>
+    <t>Interface relay signal governing the direction the motor should move.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,22 +204,31 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -322,11 +331,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -347,9 +372,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,7 +679,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -965,8 +993,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -975,7 +1003,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -983,13 +1011,13 @@
       <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>42</v>
+      <c r="G14" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
+      <c r="A15" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -998,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1006,13 +1034,13 @@
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>44</v>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>8</v>
@@ -1021,7 +1049,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1030,12 +1058,12 @@
         <v>18</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>8</v>
@@ -1044,7 +1072,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>10</v>
@@ -1053,12 +1081,12 @@
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
@@ -1067,7 +1095,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>10</v>
@@ -1076,21 +1104,21 @@
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>10</v>
@@ -1099,7 +1127,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1113,17 +1141,17 @@
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
